--- a/file-example.xlsx
+++ b/file-example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\One Drive\OneDrive\Vincent\Vincent Lab\github tutorials\Working with data in JavaScript\Working with XLSX in JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\OneDrive - Totally In View\Documents\test\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6958C767-68F9-4DAE-89E6-48C9462DD496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA36808-4A48-4B69-AFF6-29280F76B9D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>First Name</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Weiland</t>
+  </si>
+  <si>
+    <t>First_Name</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,20 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -506,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -529,7 +530,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -552,7 +553,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -575,7 +576,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -598,7 +599,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -621,7 +622,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -644,7 +645,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -667,7 +668,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -690,7 +691,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -713,11 +714,10 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:H2 A1:G1 A6:H10 A5:E5 G5:H5 A4:E4 G4:H4 A3:E3 G3:H3" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:H2 B1:G1 A6:H10 A5:E5 G5:H5 A4:E4 G4:H4 A3:E3 G3:H3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -730,12 +730,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -781,7 +781,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -896,7 +896,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -919,7 +919,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -942,7 +942,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
